--- a/data/trans_orig/P21_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E5AA3E0-8578-4F14-B2AD-20B60B9DEA1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0380B24-607E-4C62-AD3B-2712C458BDC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{41640613-171A-453A-92D7-B2A0982D0A17}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E132E65A-D0AF-445A-BDA2-51EEE36389CB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="435">
   <si>
     <t>Población que ha utilizado un servicio de urgencias en el último año en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>13,94%</t>
   </si>
   <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
   </si>
   <si>
     <t>19,69%</t>
   </si>
   <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
   </si>
   <si>
     <t>16,78%</t>
   </si>
   <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>86,06%</t>
   </si>
   <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
   </si>
   <si>
     <t>80,31%</t>
   </si>
   <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
   </si>
   <si>
     <t>83,22%</t>
   </si>
   <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1108 +140,1153 @@
     <t>16,71%</t>
   </si>
   <si>
-    <t>13,6%</t>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año en 2012 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año en 2015 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
   </si>
   <si>
     <t>19,72%</t>
   </si>
   <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
   </si>
   <si>
     <t>80,28%</t>
   </si>
   <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
   </si>
   <si>
     <t>22,3%</t>
   </si>
   <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
   </si>
   <si>
     <t>77,7%</t>
   </si>
   <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
     <t>81,51%</t>
   </si>
   <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año en 2012 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año en 2015 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>70,43%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
   </si>
   <si>
     <t>17,29%</t>
   </si>
   <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
   </si>
   <si>
     <t>82,71%</t>
   </si>
   <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
     <t>75,67%</t>
   </si>
   <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
   </si>
   <si>
     <t>77,43%</t>
   </si>
   <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
   </si>
   <si>
     <t>19,37%</t>
   </si>
   <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
   </si>
   <si>
     <t>35,8%</t>
   </si>
   <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
   </si>
   <si>
     <t>28,31%</t>
   </si>
   <si>
-    <t>46,73%</t>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
   </si>
   <si>
     <t>80,63%</t>
   </si>
   <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
   </si>
   <si>
     <t>64,2%</t>
   </si>
   <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
   </si>
   <si>
     <t>71,69%</t>
   </si>
   <si>
-    <t>53,27%</t>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
   </si>
   <si>
     <t>20,65%</t>
   </si>
   <si>
-    <t>17,97%</t>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
   </si>
   <si>
     <t>26,41%</t>
   </si>
   <si>
-    <t>23,82%</t>
-  </si>
-  <si>
     <t>29,08%</t>
   </si>
   <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
+    <t>25,75%</t>
   </si>
   <si>
     <t>79,35%</t>
   </si>
   <si>
-    <t>82,03%</t>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
   </si>
   <si>
     <t>73,59%</t>
@@ -1250,58 +1295,55 @@
     <t>70,92%</t>
   </si>
   <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
+    <t>74,25%</t>
   </si>
   <si>
     <t>20,28%</t>
   </si>
   <si>
-    <t>18,64%</t>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
   </si>
   <si>
     <t>26,9%</t>
   </si>
   <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
   </si>
   <si>
     <t>79,72%</t>
   </si>
   <si>
-    <t>81,36%</t>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
   </si>
   <si>
     <t>73,1%</t>
   </si>
   <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
   </si>
 </sst>
 </file>
@@ -1713,7 +1755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A980D9F4-6F59-4704-A433-BF5CEADC8479}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22221073-529E-4F59-9371-F4CAE68F48FA}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2475,10 +2517,10 @@
         <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>364</v>
@@ -2487,13 +2529,13 @@
         <v>364734</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2508,13 +2550,13 @@
         <v>804045</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>780</v>
@@ -2523,13 +2565,13 @@
         <v>811170</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1626</v>
@@ -2538,13 +2580,13 @@
         <v>1615215</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2612,13 +2654,13 @@
         <v>560346</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>803</v>
@@ -2627,13 +2669,13 @@
         <v>824009</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>1352</v>
@@ -2642,13 +2684,13 @@
         <v>1384355</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2663,13 +2705,13 @@
         <v>2715312</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>2493</v>
@@ -2678,13 +2720,13 @@
         <v>2554248</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>5157</v>
@@ -2693,13 +2735,13 @@
         <v>5269561</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2755,7 +2797,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2776,7 +2818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{278006BA-44D5-4F84-B97B-631D20757934}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{685C2B69-F0AC-4C20-955C-A053A4707238}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2793,7 +2835,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2900,13 +2942,13 @@
         <v>28185</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -2915,13 +2957,13 @@
         <v>28530</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>55</v>
@@ -2930,13 +2972,13 @@
         <v>56715</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2951,13 +2993,13 @@
         <v>86853</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>73</v>
@@ -2966,13 +3008,13 @@
         <v>83375</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>165</v>
@@ -2981,13 +3023,13 @@
         <v>170228</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>87</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3055,13 +3097,13 @@
         <v>113239</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="H7" s="7">
         <v>155</v>
@@ -3070,13 +3112,13 @@
         <v>164857</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>261</v>
@@ -3085,13 +3127,13 @@
         <v>278096</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3106,13 +3148,13 @@
         <v>474465</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>396</v>
@@ -3121,13 +3163,13 @@
         <v>420288</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>842</v>
@@ -3136,13 +3178,13 @@
         <v>894753</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3210,13 +3252,13 @@
         <v>228909</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>58</v>
+        <v>163</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>270</v>
@@ -3225,13 +3267,13 @@
         <v>300481</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>481</v>
@@ -3243,10 +3285,10 @@
         <v>73</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3261,13 +3303,13 @@
         <v>789038</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>68</v>
+        <v>171</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="H11" s="7">
         <v>670</v>
@@ -3276,13 +3318,13 @@
         <v>731703</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="M11" s="7">
         <v>1395</v>
@@ -3294,10 +3336,10 @@
         <v>82</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3365,13 +3407,13 @@
         <v>183822</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="H13" s="7">
         <v>239</v>
@@ -3380,13 +3422,13 @@
         <v>258015</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="M13" s="7">
         <v>408</v>
@@ -3395,13 +3437,13 @@
         <v>441837</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3416,13 +3458,13 @@
         <v>573801</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="H14" s="7">
         <v>465</v>
@@ -3431,13 +3473,13 @@
         <v>518200</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="M14" s="7">
         <v>985</v>
@@ -3446,13 +3488,13 @@
         <v>1092001</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3520,13 +3562,13 @@
         <v>152403</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="H16" s="7">
         <v>218</v>
@@ -3535,13 +3577,13 @@
         <v>227589</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="M16" s="7">
         <v>366</v>
@@ -3550,13 +3592,13 @@
         <v>379993</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3571,13 +3613,13 @@
         <v>793382</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="H17" s="7">
         <v>783</v>
@@ -3586,13 +3628,13 @@
         <v>822165</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="M17" s="7">
         <v>1543</v>
@@ -3601,13 +3643,13 @@
         <v>1615547</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3675,13 +3717,13 @@
         <v>706558</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="H19" s="7">
         <v>908</v>
@@ -3690,13 +3732,13 @@
         <v>979473</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="M19" s="7">
         <v>1571</v>
@@ -3705,13 +3747,13 @@
         <v>1686030</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3726,13 +3768,13 @@
         <v>2717540</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="H20" s="7">
         <v>2387</v>
@@ -3741,28 +3783,28 @@
         <v>2575731</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="M20" s="7">
         <v>4930</v>
       </c>
       <c r="N20" s="7">
-        <v>5293272</v>
+        <v>5293271</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3804,7 +3846,7 @@
         <v>6501</v>
       </c>
       <c r="N21" s="7">
-        <v>6979302</v>
+        <v>6979301</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3818,7 +3860,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3839,7 +3881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1970BE04-3C94-43D6-BAEF-DEF126D9E2D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD266899-EB70-4A1E-85D0-A4ABAF71E94D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3856,7 +3898,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3963,13 +4005,13 @@
         <v>24613</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="H4" s="7">
         <v>22</v>
@@ -3978,13 +4020,13 @@
         <v>23190</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>40</v>
+        <v>237</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="M4" s="7">
         <v>45</v>
@@ -3993,13 +4035,13 @@
         <v>47802</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4014,13 +4056,13 @@
         <v>90943</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="H5" s="7">
         <v>93</v>
@@ -4029,13 +4071,13 @@
         <v>90170</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>48</v>
+        <v>246</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="M5" s="7">
         <v>182</v>
@@ -4044,13 +4086,13 @@
         <v>181114</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4121,10 +4163,10 @@
         <v>89</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>241</v>
+        <v>131</v>
       </c>
       <c r="H7" s="7">
         <v>117</v>
@@ -4133,13 +4175,13 @@
         <v>118081</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="M7" s="7">
         <v>197</v>
@@ -4148,13 +4190,13 @@
         <v>199350</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4169,13 +4211,13 @@
         <v>476030</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>248</v>
+        <v>141</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="H8" s="7">
         <v>434</v>
@@ -4184,13 +4226,13 @@
         <v>441398</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="M8" s="7">
         <v>892</v>
@@ -4199,13 +4241,13 @@
         <v>917428</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4273,13 +4315,13 @@
         <v>174586</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="H10" s="7">
         <v>200</v>
@@ -4288,13 +4330,13 @@
         <v>217248</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>94</v>
+        <v>270</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="M10" s="7">
         <v>358</v>
@@ -4303,13 +4345,13 @@
         <v>391834</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4324,13 +4366,13 @@
         <v>842018</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="H11" s="7">
         <v>774</v>
@@ -4339,13 +4381,13 @@
         <v>822296</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>101</v>
+        <v>280</v>
       </c>
       <c r="M11" s="7">
         <v>1562</v>
@@ -4354,13 +4396,13 @@
         <v>1664314</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4428,13 +4470,13 @@
         <v>128310</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="H13" s="7">
         <v>144</v>
@@ -4443,13 +4485,13 @@
         <v>154983</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="M13" s="7">
         <v>261</v>
@@ -4458,13 +4500,13 @@
         <v>283293</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4479,13 +4521,13 @@
         <v>630276</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="H14" s="7">
         <v>591</v>
@@ -4494,13 +4536,13 @@
         <v>628757</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="M14" s="7">
         <v>1169</v>
@@ -4509,13 +4551,13 @@
         <v>1259033</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4583,13 +4625,13 @@
         <v>155812</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="H16" s="7">
         <v>225</v>
@@ -4598,13 +4640,13 @@
         <v>247978</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>242</v>
+        <v>306</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="M16" s="7">
         <v>377</v>
@@ -4613,13 +4655,13 @@
         <v>403790</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4634,13 +4676,13 @@
         <v>779828</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="H17" s="7">
         <v>733</v>
@@ -4649,13 +4691,13 @@
         <v>793982</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>250</v>
+        <v>316</v>
       </c>
       <c r="M17" s="7">
         <v>1511</v>
@@ -4664,13 +4706,13 @@
         <v>1573810</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4738,13 +4780,13 @@
         <v>564590</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>304</v>
+        <v>96</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="H19" s="7">
         <v>708</v>
@@ -4753,13 +4795,13 @@
         <v>761480</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>247</v>
+        <v>323</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="M19" s="7">
         <v>1238</v>
@@ -4768,13 +4810,13 @@
         <v>1326069</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4789,13 +4831,13 @@
         <v>2819094</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>312</v>
+        <v>106</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="H20" s="7">
         <v>2625</v>
@@ -4804,13 +4846,13 @@
         <v>2776603</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>254</v>
+        <v>332</v>
       </c>
       <c r="M20" s="7">
         <v>5316</v>
@@ -4819,13 +4861,13 @@
         <v>5595699</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4881,7 +4923,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4902,7 +4944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDB70BB4-9B68-4F96-8E47-73EA639C50D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23DBFF9D-8327-499A-9126-C2E2225EE8F2}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4919,7 +4961,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5026,13 +5068,13 @@
         <v>19909</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="H4" s="7">
         <v>42</v>
@@ -5041,13 +5083,13 @@
         <v>20917</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="M4" s="7">
         <v>66</v>
@@ -5056,13 +5098,13 @@
         <v>40826</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5077,13 +5119,13 @@
         <v>82073</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="H5" s="7">
         <v>201</v>
@@ -5092,13 +5134,13 @@
         <v>109816</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="M5" s="7">
         <v>295</v>
@@ -5107,13 +5149,13 @@
         <v>191889</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5181,13 +5223,13 @@
         <v>109663</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="H7" s="7">
         <v>210</v>
@@ -5196,13 +5238,13 @@
         <v>129213</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>344</v>
+        <v>149</v>
       </c>
       <c r="M7" s="7">
         <v>333</v>
@@ -5211,13 +5253,13 @@
         <v>238875</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5232,13 +5274,13 @@
         <v>438221</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="H8" s="7">
         <v>786</v>
@@ -5247,13 +5289,13 @@
         <v>463749</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>352</v>
+        <v>159</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="M8" s="7">
         <v>1274</v>
@@ -5262,13 +5304,13 @@
         <v>901971</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5336,13 +5378,13 @@
         <v>215999</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="H10" s="7">
         <v>367</v>
@@ -5351,13 +5393,13 @@
         <v>257298</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="M10" s="7">
         <v>574</v>
@@ -5366,13 +5408,13 @@
         <v>473297</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5387,13 +5429,13 @@
         <v>823249</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="H11" s="7">
         <v>1146</v>
@@ -5402,13 +5444,13 @@
         <v>800256</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="M11" s="7">
         <v>1903</v>
@@ -5417,13 +5459,13 @@
         <v>1623505</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5491,13 +5533,13 @@
         <v>141153</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="H13" s="7">
         <v>279</v>
@@ -5506,13 +5548,13 @@
         <v>311422</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="M13" s="7">
         <v>412</v>
@@ -5521,13 +5563,13 @@
         <v>452575</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>53</v>
+        <v>396</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5542,13 +5584,13 @@
         <v>587619</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="H14" s="7">
         <v>765</v>
@@ -5557,13 +5599,13 @@
         <v>558519</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="M14" s="7">
         <v>1308</v>
@@ -5572,13 +5614,13 @@
         <v>1146137</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>61</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5646,13 +5688,13 @@
         <v>199343</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>341</v>
+        <v>409</v>
       </c>
       <c r="H16" s="7">
         <v>415</v>
@@ -5661,13 +5703,13 @@
         <v>302915</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>394</v>
+        <v>305</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="M16" s="7">
         <v>623</v>
@@ -5676,13 +5718,13 @@
         <v>502259</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>396</v>
+        <v>169</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>397</v>
+        <v>53</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5697,13 +5739,13 @@
         <v>766060</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>349</v>
+        <v>414</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="H17" s="7">
         <v>1145</v>
@@ -5712,13 +5754,13 @@
         <v>844121</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>403</v>
+        <v>314</v>
       </c>
       <c r="M17" s="7">
         <v>1943</v>
@@ -5727,13 +5769,13 @@
         <v>1610180</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>404</v>
+        <v>178</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>406</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5801,13 +5843,13 @@
         <v>686068</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>342</v>
+        <v>421</v>
       </c>
       <c r="H19" s="7">
         <v>1313</v>
@@ -5816,13 +5858,13 @@
         <v>1021764</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="M19" s="7">
         <v>2008</v>
@@ -5831,13 +5873,13 @@
         <v>1707832</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>396</v>
+        <v>169</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5852,13 +5894,13 @@
         <v>2697221</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>351</v>
+        <v>428</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="H20" s="7">
         <v>4043</v>
@@ -5867,13 +5909,13 @@
         <v>2776461</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="M20" s="7">
         <v>6723</v>
@@ -5882,13 +5924,13 @@
         <v>5473682</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>404</v>
+        <v>178</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5944,7 +5986,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21_R-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0380B24-607E-4C62-AD3B-2712C458BDC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C0375C8-811C-4519-BEC9-E9C8C13960A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E132E65A-D0AF-445A-BDA2-51EEE36389CB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1E93B112-EE3F-420E-B033-FB01F458EB89}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="437">
   <si>
     <t>Población que ha utilizado un servicio de urgencias en el último año en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -77,1225 +77,1231 @@
     <t>13,94%</t>
   </si>
   <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
   </si>
   <si>
     <t>19,69%</t>
   </si>
   <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
   </si>
   <si>
     <t>16,78%</t>
   </si>
   <si>
-    <t>12,5%</t>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
   </si>
   <si>
     <t>21,89%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
   </si>
   <si>
     <t>78,11%</t>
   </si>
   <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año en 2012 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año en 2016 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
   </si>
   <si>
     <t>21,98%</t>
   </si>
   <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
   </si>
   <si>
     <t>78,02%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año en 2012 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año en 2015 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
   </si>
   <si>
     <t>20,28%</t>
@@ -1755,7 +1761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22221073-529E-4F59-9371-F4CAE68F48FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C71E5A2-D740-4BDB-9CBB-47AA8011E31E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2818,7 +2824,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{685C2B69-F0AC-4C20-955C-A053A4707238}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8365E40-7A67-4D2F-A3A9-6D516F069503}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2960,10 +2966,10 @@
         <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>55</v>
@@ -2972,13 +2978,13 @@
         <v>56715</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,13 +2999,13 @@
         <v>86853</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>73</v>
@@ -3008,13 +3014,13 @@
         <v>83375</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>140</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M5" s="7">
         <v>165</v>
@@ -3023,13 +3029,13 @@
         <v>170228</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,13 +3103,13 @@
         <v>113239</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H7" s="7">
         <v>155</v>
@@ -3112,13 +3118,13 @@
         <v>164857</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>261</v>
@@ -3127,13 +3133,13 @@
         <v>278096</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,13 +3154,13 @@
         <v>474465</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>396</v>
@@ -3163,13 +3169,13 @@
         <v>420288</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>842</v>
@@ -3178,13 +3184,13 @@
         <v>894753</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3252,13 +3258,13 @@
         <v>228909</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>163</v>
+        <v>74</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H10" s="7">
         <v>270</v>
@@ -3267,13 +3273,13 @@
         <v>300481</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M10" s="7">
         <v>481</v>
@@ -3285,10 +3291,10 @@
         <v>73</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,13 +3309,13 @@
         <v>789038</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>171</v>
+        <v>84</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H11" s="7">
         <v>670</v>
@@ -3318,13 +3324,13 @@
         <v>731703</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M11" s="7">
         <v>1395</v>
@@ -3336,10 +3342,10 @@
         <v>82</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3407,13 +3413,13 @@
         <v>183822</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H13" s="7">
         <v>239</v>
@@ -3422,13 +3428,13 @@
         <v>258015</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M13" s="7">
         <v>408</v>
@@ -3437,13 +3443,13 @@
         <v>441837</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3458,13 +3464,13 @@
         <v>573801</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H14" s="7">
         <v>465</v>
@@ -3473,13 +3479,13 @@
         <v>518200</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="M14" s="7">
         <v>985</v>
@@ -3488,13 +3494,13 @@
         <v>1092001</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3562,13 +3568,13 @@
         <v>152403</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H16" s="7">
         <v>218</v>
@@ -3577,13 +3583,13 @@
         <v>227589</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="M16" s="7">
         <v>366</v>
@@ -3592,13 +3598,13 @@
         <v>379993</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3613,13 +3619,13 @@
         <v>793382</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H17" s="7">
         <v>783</v>
@@ -3628,13 +3634,13 @@
         <v>822165</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="M17" s="7">
         <v>1543</v>
@@ -3643,13 +3649,13 @@
         <v>1615547</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3717,28 +3723,28 @@
         <v>706558</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>216</v>
+        <v>93</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H19" s="7">
         <v>908</v>
       </c>
       <c r="I19" s="7">
-        <v>979473</v>
+        <v>979472</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="M19" s="7">
         <v>1571</v>
@@ -3747,13 +3753,13 @@
         <v>1686030</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3768,13 +3774,13 @@
         <v>2717540</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>226</v>
+        <v>103</v>
       </c>
       <c r="H20" s="7">
         <v>2387</v>
@@ -3783,28 +3789,28 @@
         <v>2575731</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="M20" s="7">
         <v>4930</v>
       </c>
       <c r="N20" s="7">
-        <v>5293271</v>
+        <v>5293272</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3831,7 +3837,7 @@
         <v>3295</v>
       </c>
       <c r="I21" s="7">
-        <v>3555204</v>
+        <v>3555203</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3846,7 +3852,7 @@
         <v>6501</v>
       </c>
       <c r="N21" s="7">
-        <v>6979301</v>
+        <v>6979302</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3881,7 +3887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD266899-EB70-4A1E-85D0-A4ABAF71E94D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C72AEA97-DD23-4DAA-8E12-90308D3ACB0F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3898,7 +3904,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4005,13 +4011,13 @@
         <v>24613</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="H4" s="7">
         <v>22</v>
@@ -4020,13 +4026,13 @@
         <v>23190</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="M4" s="7">
         <v>45</v>
@@ -4035,13 +4041,13 @@
         <v>47802</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,13 +4062,13 @@
         <v>90943</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="H5" s="7">
         <v>93</v>
@@ -4071,13 +4077,13 @@
         <v>90170</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="M5" s="7">
         <v>182</v>
@@ -4086,13 +4092,13 @@
         <v>181114</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4163,10 +4169,10 @@
         <v>89</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>131</v>
+        <v>247</v>
       </c>
       <c r="H7" s="7">
         <v>117</v>
@@ -4175,13 +4181,13 @@
         <v>118081</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="M7" s="7">
         <v>197</v>
@@ -4190,13 +4196,13 @@
         <v>199350</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4214,10 +4220,10 @@
         <v>98</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>141</v>
+        <v>253</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="H8" s="7">
         <v>434</v>
@@ -4226,13 +4232,13 @@
         <v>441398</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="M8" s="7">
         <v>892</v>
@@ -4241,13 +4247,13 @@
         <v>917428</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4315,13 +4321,13 @@
         <v>174586</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="H10" s="7">
         <v>200</v>
@@ -4330,13 +4336,13 @@
         <v>217248</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="M10" s="7">
         <v>358</v>
@@ -4345,13 +4351,13 @@
         <v>391834</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4366,13 +4372,13 @@
         <v>842018</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="H11" s="7">
         <v>774</v>
@@ -4381,13 +4387,13 @@
         <v>822296</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="M11" s="7">
         <v>1562</v>
@@ -4396,13 +4402,13 @@
         <v>1664314</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4470,13 +4476,13 @@
         <v>128310</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H13" s="7">
         <v>144</v>
@@ -4485,13 +4491,13 @@
         <v>154983</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="M13" s="7">
         <v>261</v>
@@ -4500,13 +4506,13 @@
         <v>283293</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4521,13 +4527,13 @@
         <v>630276</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="H14" s="7">
         <v>591</v>
@@ -4536,13 +4542,13 @@
         <v>628757</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="M14" s="7">
         <v>1169</v>
@@ -4551,13 +4557,13 @@
         <v>1259033</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4625,13 +4631,13 @@
         <v>155812</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="H16" s="7">
         <v>225</v>
@@ -4640,13 +4646,13 @@
         <v>247978</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="M16" s="7">
         <v>377</v>
@@ -4655,13 +4661,13 @@
         <v>403790</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4676,13 +4682,13 @@
         <v>779828</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="H17" s="7">
         <v>733</v>
@@ -4691,13 +4697,13 @@
         <v>793982</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="M17" s="7">
         <v>1511</v>
@@ -4706,13 +4712,13 @@
         <v>1573810</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4780,13 +4786,13 @@
         <v>564590</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>96</v>
+        <v>314</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H19" s="7">
         <v>708</v>
@@ -4795,13 +4801,13 @@
         <v>761480</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="M19" s="7">
         <v>1238</v>
@@ -4810,13 +4816,13 @@
         <v>1326069</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4831,13 +4837,13 @@
         <v>2819094</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>106</v>
+        <v>323</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H20" s="7">
         <v>2625</v>
@@ -4846,13 +4852,13 @@
         <v>2776603</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M20" s="7">
         <v>5316</v>
@@ -4861,13 +4867,13 @@
         <v>5595699</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4944,7 +4950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23DBFF9D-8327-499A-9126-C2E2225EE8F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EEE0BA5-EB67-42BC-80C9-3078256604AD}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4961,7 +4967,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5068,13 +5074,13 @@
         <v>19909</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="H4" s="7">
         <v>42</v>
@@ -5083,13 +5089,13 @@
         <v>20917</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="M4" s="7">
         <v>66</v>
@@ -5098,13 +5104,13 @@
         <v>40826</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5119,13 +5125,13 @@
         <v>82073</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="H5" s="7">
         <v>201</v>
@@ -5134,13 +5140,13 @@
         <v>109816</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="M5" s="7">
         <v>295</v>
@@ -5149,13 +5155,13 @@
         <v>191889</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5223,13 +5229,13 @@
         <v>109663</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H7" s="7">
         <v>210</v>
@@ -5238,13 +5244,13 @@
         <v>129213</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>149</v>
+        <v>356</v>
       </c>
       <c r="M7" s="7">
         <v>333</v>
@@ -5253,13 +5259,13 @@
         <v>238875</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5274,13 +5280,13 @@
         <v>438221</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H8" s="7">
         <v>786</v>
@@ -5289,13 +5295,13 @@
         <v>463749</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>159</v>
+        <v>364</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="M8" s="7">
         <v>1274</v>
@@ -5304,13 +5310,13 @@
         <v>901971</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5378,13 +5384,13 @@
         <v>215999</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="H10" s="7">
         <v>367</v>
@@ -5393,13 +5399,13 @@
         <v>257298</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="M10" s="7">
         <v>574</v>
@@ -5408,13 +5414,13 @@
         <v>473297</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5429,13 +5435,13 @@
         <v>823249</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="H11" s="7">
         <v>1146</v>
@@ -5444,13 +5450,13 @@
         <v>800256</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>385</v>
       </c>
       <c r="M11" s="7">
         <v>1903</v>
@@ -5459,13 +5465,13 @@
         <v>1623505</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5533,13 +5539,13 @@
         <v>141153</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>391</v>
       </c>
       <c r="H13" s="7">
         <v>279</v>
@@ -5548,13 +5554,13 @@
         <v>311422</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="M13" s="7">
         <v>412</v>
@@ -5563,13 +5569,13 @@
         <v>452575</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5584,13 +5590,13 @@
         <v>587619</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="H14" s="7">
         <v>765</v>
@@ -5599,13 +5605,13 @@
         <v>558519</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>403</v>
       </c>
       <c r="M14" s="7">
         <v>1308</v>
@@ -5614,13 +5620,13 @@
         <v>1146137</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5688,13 +5694,13 @@
         <v>199343</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>409</v>
       </c>
       <c r="H16" s="7">
         <v>415</v>
@@ -5703,13 +5709,13 @@
         <v>302915</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="M16" s="7">
         <v>623</v>
@@ -5718,10 +5724,10 @@
         <v>502259</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>169</v>
+        <v>410</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>53</v>
+        <v>411</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>412</v>
@@ -5760,7 +5766,7 @@
         <v>417</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="M17" s="7">
         <v>1943</v>
@@ -5769,13 +5775,13 @@
         <v>1610180</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>178</v>
+        <v>418</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>61</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5843,13 +5849,13 @@
         <v>686068</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="H19" s="7">
         <v>1313</v>
@@ -5858,13 +5864,13 @@
         <v>1021764</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="M19" s="7">
         <v>2008</v>
@@ -5873,13 +5879,13 @@
         <v>1707832</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>169</v>
+        <v>410</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5894,13 +5900,13 @@
         <v>2697221</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="H20" s="7">
         <v>4043</v>
@@ -5909,13 +5915,13 @@
         <v>2776461</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="M20" s="7">
         <v>6723</v>
@@ -5924,13 +5930,13 @@
         <v>5473682</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>178</v>
+        <v>418</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P21_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C0375C8-811C-4519-BEC9-E9C8C13960A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFFB702C-6BD3-4A35-97F4-1BA3FE1E9DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1E93B112-EE3F-420E-B033-FB01F458EB89}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{353CC120-FAB1-436C-86F6-6B7BD2EA84B0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="421">
   <si>
     <t>Población que ha utilizado un servicio de urgencias en el último año en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>13,94%</t>
   </si>
   <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
   </si>
   <si>
     <t>19,69%</t>
   </si>
   <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
   </si>
   <si>
     <t>16,78%</t>
   </si>
   <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>86,06%</t>
   </si>
   <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
   </si>
   <si>
     <t>80,31%</t>
   </si>
   <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
   </si>
   <si>
     <t>83,22%</t>
   </si>
   <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1216 +140,1168 @@
     <t>16,71%</t>
   </si>
   <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año en 2012 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año en 2016 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
     <t>14,16%</t>
   </si>
   <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
   </si>
   <si>
     <t>85,84%</t>
   </si>
   <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>71,18%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año en 2012 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
   </si>
   <si>
     <t>27,86%</t>
   </si>
   <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
   </si>
   <si>
     <t>72,14%</t>
   </si>
   <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año en 2016 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
+    <t>77,73%</t>
   </si>
 </sst>
 </file>
@@ -1761,7 +1713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C71E5A2-D740-4BDB-9CBB-47AA8011E31E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA67F482-27F0-4618-BEC9-6830B04E9979}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2523,10 +2475,10 @@
         <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>364</v>
@@ -2535,13 +2487,13 @@
         <v>364734</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2556,13 +2508,13 @@
         <v>804045</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>780</v>
@@ -2571,13 +2523,13 @@
         <v>811170</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="M17" s="7">
         <v>1626</v>
@@ -2586,13 +2538,13 @@
         <v>1615215</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2660,13 +2612,13 @@
         <v>560346</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H19" s="7">
         <v>803</v>
@@ -2675,13 +2627,13 @@
         <v>824009</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="M19" s="7">
         <v>1352</v>
@@ -2690,13 +2642,13 @@
         <v>1384355</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2711,13 +2663,13 @@
         <v>2715312</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H20" s="7">
         <v>2493</v>
@@ -2726,13 +2678,13 @@
         <v>2554248</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="M20" s="7">
         <v>5157</v>
@@ -2741,13 +2693,13 @@
         <v>5269561</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2803,7 +2755,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2824,7 +2776,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8365E40-7A67-4D2F-A3A9-6D516F069503}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73DE77EC-DF69-4955-B552-6E01039D854A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2841,7 +2793,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2948,13 +2900,13 @@
         <v>28185</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -2963,13 +2915,13 @@
         <v>28530</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="M4" s="7">
         <v>55</v>
@@ -2978,13 +2930,13 @@
         <v>56715</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2999,13 +2951,13 @@
         <v>86853</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="H5" s="7">
         <v>73</v>
@@ -3014,13 +2966,13 @@
         <v>83375</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M5" s="7">
         <v>165</v>
@@ -3029,13 +2981,13 @@
         <v>170228</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,13 +3055,13 @@
         <v>113239</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H7" s="7">
         <v>155</v>
@@ -3118,13 +3070,13 @@
         <v>164857</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="M7" s="7">
         <v>261</v>
@@ -3133,13 +3085,13 @@
         <v>278096</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,13 +3106,13 @@
         <v>474465</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H8" s="7">
         <v>396</v>
@@ -3169,13 +3121,13 @@
         <v>420288</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="M8" s="7">
         <v>842</v>
@@ -3184,13 +3136,13 @@
         <v>894753</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3258,13 +3210,13 @@
         <v>228909</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="H10" s="7">
         <v>270</v>
@@ -3273,13 +3225,13 @@
         <v>300481</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="M10" s="7">
         <v>481</v>
@@ -3291,10 +3243,10 @@
         <v>73</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3309,13 +3261,13 @@
         <v>789038</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="H11" s="7">
         <v>670</v>
@@ -3324,13 +3276,13 @@
         <v>731703</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="M11" s="7">
         <v>1395</v>
@@ -3342,10 +3294,10 @@
         <v>82</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3413,13 +3365,13 @@
         <v>183822</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H13" s="7">
         <v>239</v>
@@ -3428,13 +3380,13 @@
         <v>258015</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="M13" s="7">
         <v>408</v>
@@ -3443,13 +3395,13 @@
         <v>441837</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3464,13 +3416,13 @@
         <v>573801</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="H14" s="7">
         <v>465</v>
@@ -3479,13 +3431,13 @@
         <v>518200</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="M14" s="7">
         <v>985</v>
@@ -3494,13 +3446,13 @@
         <v>1092001</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3568,13 +3520,13 @@
         <v>152403</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="H16" s="7">
         <v>218</v>
@@ -3583,13 +3535,13 @@
         <v>227589</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="M16" s="7">
         <v>366</v>
@@ -3598,13 +3550,13 @@
         <v>379993</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3619,13 +3571,13 @@
         <v>793382</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H17" s="7">
         <v>783</v>
@@ -3634,13 +3586,13 @@
         <v>822165</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="M17" s="7">
         <v>1543</v>
@@ -3649,13 +3601,13 @@
         <v>1615547</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3723,28 +3675,28 @@
         <v>706558</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>93</v>
+        <v>206</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H19" s="7">
         <v>908</v>
       </c>
       <c r="I19" s="7">
-        <v>979472</v>
+        <v>979473</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="M19" s="7">
         <v>1571</v>
@@ -3753,13 +3705,13 @@
         <v>1686030</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3774,13 +3726,13 @@
         <v>2717540</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>103</v>
+        <v>216</v>
       </c>
       <c r="H20" s="7">
         <v>2387</v>
@@ -3789,13 +3741,13 @@
         <v>2575731</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M20" s="7">
         <v>4930</v>
@@ -3804,13 +3756,13 @@
         <v>5293272</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3837,7 +3789,7 @@
         <v>3295</v>
       </c>
       <c r="I21" s="7">
-        <v>3555203</v>
+        <v>3555204</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3866,7 +3818,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3887,7 +3839,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C72AEA97-DD23-4DAA-8E12-90308D3ACB0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4787AEEF-A08F-4834-8CC7-908E3D3AF671}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3904,7 +3856,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4011,13 +3963,13 @@
         <v>24613</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H4" s="7">
         <v>22</v>
@@ -4026,13 +3978,13 @@
         <v>23190</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>231</v>
+        <v>40</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="M4" s="7">
         <v>45</v>
@@ -4041,13 +3993,13 @@
         <v>47802</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,13 +4014,13 @@
         <v>90943</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="H5" s="7">
         <v>93</v>
@@ -4077,13 +4029,13 @@
         <v>90170</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>240</v>
+        <v>48</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="M5" s="7">
         <v>182</v>
@@ -4092,13 +4044,13 @@
         <v>181114</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4169,10 +4121,10 @@
         <v>89</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="H7" s="7">
         <v>117</v>
@@ -4181,13 +4133,13 @@
         <v>118081</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M7" s="7">
         <v>197</v>
@@ -4196,13 +4148,13 @@
         <v>199350</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4217,13 +4169,13 @@
         <v>476030</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="H8" s="7">
         <v>434</v>
@@ -4232,13 +4184,13 @@
         <v>441398</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="M8" s="7">
         <v>892</v>
@@ -4250,10 +4202,10 @@
         <v>253</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4321,13 +4273,13 @@
         <v>174586</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H10" s="7">
         <v>200</v>
@@ -4336,13 +4288,13 @@
         <v>217248</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>264</v>
+        <v>94</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="M10" s="7">
         <v>358</v>
@@ -4351,13 +4303,13 @@
         <v>391834</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4372,13 +4324,13 @@
         <v>842018</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="H11" s="7">
         <v>774</v>
@@ -4387,13 +4339,13 @@
         <v>822296</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>274</v>
+        <v>101</v>
       </c>
       <c r="M11" s="7">
         <v>1562</v>
@@ -4402,13 +4354,13 @@
         <v>1664314</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4476,13 +4428,13 @@
         <v>128310</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="H13" s="7">
         <v>144</v>
@@ -4491,13 +4443,13 @@
         <v>154983</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="M13" s="7">
         <v>261</v>
@@ -4506,13 +4458,13 @@
         <v>283293</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4527,13 +4479,13 @@
         <v>630276</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="H14" s="7">
         <v>591</v>
@@ -4542,13 +4494,13 @@
         <v>628757</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="M14" s="7">
         <v>1169</v>
@@ -4557,13 +4509,13 @@
         <v>1259033</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4631,13 +4583,13 @@
         <v>155812</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="H16" s="7">
         <v>225</v>
@@ -4646,13 +4598,13 @@
         <v>247978</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>300</v>
+        <v>242</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="M16" s="7">
         <v>377</v>
@@ -4661,13 +4613,13 @@
         <v>403790</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4682,13 +4634,13 @@
         <v>779828</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="H17" s="7">
         <v>733</v>
@@ -4697,13 +4649,13 @@
         <v>793982</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>310</v>
+        <v>250</v>
       </c>
       <c r="M17" s="7">
         <v>1511</v>
@@ -4712,13 +4664,13 @@
         <v>1573810</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4786,13 +4738,13 @@
         <v>564590</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="H19" s="7">
         <v>708</v>
@@ -4801,13 +4753,13 @@
         <v>761480</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>318</v>
+        <v>247</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="M19" s="7">
         <v>1238</v>
@@ -4816,13 +4768,13 @@
         <v>1326069</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4837,13 +4789,13 @@
         <v>2819094</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="H20" s="7">
         <v>2625</v>
@@ -4852,13 +4804,13 @@
         <v>2776603</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>328</v>
+        <v>254</v>
       </c>
       <c r="M20" s="7">
         <v>5316</v>
@@ -4867,13 +4819,13 @@
         <v>5595699</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4929,7 +4881,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -4950,7 +4902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EEE0BA5-EB67-42BC-80C9-3078256604AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31053062-55B7-457A-9E37-A30A47535080}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4967,7 +4919,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5074,13 +5026,13 @@
         <v>19909</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="H4" s="7">
         <v>42</v>
@@ -5089,13 +5041,13 @@
         <v>20917</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="M4" s="7">
         <v>66</v>
@@ -5104,13 +5056,13 @@
         <v>40826</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5125,13 +5077,13 @@
         <v>82073</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="H5" s="7">
         <v>201</v>
@@ -5140,13 +5092,13 @@
         <v>109816</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="M5" s="7">
         <v>295</v>
@@ -5155,13 +5107,13 @@
         <v>191889</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5229,13 +5181,13 @@
         <v>109663</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="H7" s="7">
         <v>210</v>
@@ -5244,13 +5196,13 @@
         <v>129213</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="M7" s="7">
         <v>333</v>
@@ -5259,13 +5211,13 @@
         <v>238875</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5280,13 +5232,13 @@
         <v>438221</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="H8" s="7">
         <v>786</v>
@@ -5295,13 +5247,13 @@
         <v>463749</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="M8" s="7">
         <v>1274</v>
@@ -5310,13 +5262,13 @@
         <v>901971</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5384,13 +5336,13 @@
         <v>215999</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="H10" s="7">
         <v>367</v>
@@ -5399,13 +5351,13 @@
         <v>257298</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="M10" s="7">
         <v>574</v>
@@ -5414,13 +5366,13 @@
         <v>473297</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5435,13 +5387,13 @@
         <v>823249</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="H11" s="7">
         <v>1146</v>
@@ -5450,13 +5402,13 @@
         <v>800256</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="M11" s="7">
         <v>1903</v>
@@ -5465,13 +5417,13 @@
         <v>1623505</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5539,13 +5491,13 @@
         <v>141153</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="H13" s="7">
         <v>279</v>
@@ -5554,13 +5506,13 @@
         <v>311422</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="M13" s="7">
         <v>412</v>
@@ -5569,13 +5521,13 @@
         <v>452575</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>394</v>
+        <v>53</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5590,13 +5542,13 @@
         <v>587619</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="H14" s="7">
         <v>765</v>
@@ -5605,13 +5557,13 @@
         <v>558519</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="M14" s="7">
         <v>1308</v>
@@ -5620,13 +5572,13 @@
         <v>1146137</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>404</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5694,13 +5646,13 @@
         <v>199343</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>407</v>
+        <v>341</v>
       </c>
       <c r="H16" s="7">
         <v>415</v>
@@ -5709,13 +5661,13 @@
         <v>302915</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>299</v>
+        <v>394</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="M16" s="7">
         <v>623</v>
@@ -5724,13 +5676,13 @@
         <v>502259</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5745,13 +5697,13 @@
         <v>766060</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>414</v>
+        <v>349</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="H17" s="7">
         <v>1145</v>
@@ -5760,13 +5712,13 @@
         <v>844121</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>308</v>
+        <v>403</v>
       </c>
       <c r="M17" s="7">
         <v>1943</v>
@@ -5775,13 +5727,13 @@
         <v>1610180</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5849,13 +5801,13 @@
         <v>686068</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>423</v>
+        <v>342</v>
       </c>
       <c r="H19" s="7">
         <v>1313</v>
@@ -5864,13 +5816,13 @@
         <v>1021764</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="M19" s="7">
         <v>2008</v>
@@ -5879,13 +5831,13 @@
         <v>1707832</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5900,13 +5852,13 @@
         <v>2697221</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>430</v>
+        <v>351</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="H20" s="7">
         <v>4043</v>
@@ -5915,13 +5867,13 @@
         <v>2776461</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="M20" s="7">
         <v>6723</v>
@@ -5930,13 +5882,13 @@
         <v>5473682</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5992,7 +5944,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFFB702C-6BD3-4A35-97F4-1BA3FE1E9DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{86EB6B34-1EBE-4951-BA01-1E7372DFF672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{353CC120-FAB1-436C-86F6-6B7BD2EA84B0}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{FDBD2C18-C0BD-4939-BA5E-F3AB23737DB2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="352">
   <si>
     <t>Población que ha utilizado un servicio de urgencias en el último año en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -68,288 +68,237 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
   </si>
   <si>
     <t>16,71%</t>
   </si>
   <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
   </si>
   <si>
     <t>83,29%</t>
   </si>
   <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
     <t>17,11%</t>
   </si>
   <si>
@@ -404,106 +353,58 @@
     <t>Población que ha utilizado un servicio de urgencias en el último año en 2012 (Tasa respuesta: 99,91%)</t>
   </si>
   <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
   </si>
   <si>
     <t>19,79%</t>
@@ -617,12 +518,6 @@
     <t>19,08%</t>
   </si>
   <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
     <t>17,32%</t>
   </si>
   <si>
@@ -641,15 +536,9 @@
     <t>78,32%</t>
   </si>
   <si>
-    <t>75,77%</t>
-  </si>
-  <si>
     <t>80,92%</t>
   </si>
   <si>
-    <t>80,96%</t>
-  </si>
-  <si>
     <t>79,17%</t>
   </si>
   <si>
@@ -713,285 +602,237 @@
     <t>Población que ha utilizado un servicio de urgencias en el último año en 2016 (Tasa respuesta: 99,77%)</t>
   </si>
   <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>70,43%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
   </si>
   <si>
     <t>21,11%</t>
   </si>
   <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
   </si>
   <si>
     <t>20,17%</t>
   </si>
   <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
   </si>
   <si>
     <t>79,83%</t>
   </si>
   <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
     <t>80,84%</t>
   </si>
   <si>
@@ -1004,304 +845,256 @@
     <t>Población que ha utilizado un servicio de urgencias en el último año en 2023 (Tasa respuesta: 99,86%)</t>
   </si>
   <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
   </si>
   <si>
     <t>24,69%</t>
   </si>
   <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
   </si>
   <si>
     <t>75,31%</t>
   </si>
   <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
   </si>
 </sst>
 </file>
@@ -1713,8 +1506,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA67F482-27F0-4618-BEC9-6830B04E9979}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78249A9C-0BCA-4856-B716-0A7ADE733C14}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1831,10 +1624,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="D4" s="7">
-        <v>16076</v>
+        <v>112781</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1846,10 +1639,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="I4" s="7">
-        <v>22207</v>
+        <v>136096</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1861,10 +1654,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>39</v>
+        <v>250</v>
       </c>
       <c r="N4" s="7">
-        <v>38283</v>
+        <v>248877</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1882,10 +1675,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>91</v>
+        <v>571</v>
       </c>
       <c r="D5" s="7">
-        <v>99282</v>
+        <v>581231</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1897,10 +1690,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>103</v>
+        <v>557</v>
       </c>
       <c r="I5" s="7">
-        <v>90548</v>
+        <v>551314</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1912,10 +1705,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>194</v>
+        <v>1128</v>
       </c>
       <c r="N5" s="7">
-        <v>189830</v>
+        <v>1132546</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1933,10 +1726,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1948,10 +1741,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>695</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>687410</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1963,10 +1756,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1378</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1381423</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1986,10 +1779,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>98</v>
+        <v>173</v>
       </c>
       <c r="D7" s="7">
-        <v>96705</v>
+        <v>186619</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2001,10 +1794,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>113</v>
+        <v>268</v>
       </c>
       <c r="I7" s="7">
-        <v>113889</v>
+        <v>283932</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2016,10 +1809,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>211</v>
+        <v>441</v>
       </c>
       <c r="N7" s="7">
-        <v>210594</v>
+        <v>470551</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2037,10 +1830,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>480</v>
+        <v>723</v>
       </c>
       <c r="D8" s="7">
-        <v>481949</v>
+        <v>775181</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2052,10 +1845,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>454</v>
+        <v>640</v>
       </c>
       <c r="I8" s="7">
-        <v>460767</v>
+        <v>684461</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2067,10 +1860,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>934</v>
+        <v>1363</v>
       </c>
       <c r="N8" s="7">
-        <v>942716</v>
+        <v>1459642</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2088,10 +1881,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2103,10 +1896,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>567</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>574656</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2118,10 +1911,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1145</v>
+        <v>1804</v>
       </c>
       <c r="N9" s="7">
-        <v>1153310</v>
+        <v>1930193</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2141,10 +1934,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="D10" s="7">
-        <v>186619</v>
+        <v>123654</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2156,10 +1949,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>268</v>
+        <v>180</v>
       </c>
       <c r="I10" s="7">
-        <v>283932</v>
+        <v>176539</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2171,10 +1964,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>441</v>
+        <v>297</v>
       </c>
       <c r="N10" s="7">
-        <v>470551</v>
+        <v>300193</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2192,10 +1985,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>723</v>
+        <v>524</v>
       </c>
       <c r="D11" s="7">
-        <v>775181</v>
+        <v>554855</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2207,10 +2000,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>640</v>
+        <v>516</v>
       </c>
       <c r="I11" s="7">
-        <v>684461</v>
+        <v>507302</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2222,10 +2015,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1363</v>
+        <v>1040</v>
       </c>
       <c r="N11" s="7">
-        <v>1459642</v>
+        <v>1062157</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2243,10 +2036,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2258,10 +2051,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2273,10 +2066,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2296,10 +2089,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="D13" s="7">
-        <v>123654</v>
+        <v>137292</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2311,34 +2104,34 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>180</v>
+        <v>217</v>
       </c>
       <c r="I13" s="7">
-        <v>176539</v>
+        <v>227442</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>364</v>
+      </c>
+      <c r="N13" s="7">
+        <v>364734</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M13" s="7">
-        <v>297</v>
-      </c>
-      <c r="N13" s="7">
-        <v>300193</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2347,49 +2140,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>524</v>
+        <v>846</v>
       </c>
       <c r="D14" s="7">
-        <v>554855</v>
+        <v>804045</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>780</v>
+      </c>
+      <c r="I14" s="7">
+        <v>811170</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="7">
-        <v>516</v>
-      </c>
-      <c r="I14" s="7">
-        <v>507302</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1626</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1615215</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M14" s="7">
-        <v>1040</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1062157</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2398,10 +2191,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>993</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>941337</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2413,10 +2206,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2428,10 +2221,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1990</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1979949</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2445,55 +2238,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>147</v>
+        <v>549</v>
       </c>
       <c r="D16" s="7">
-        <v>137292</v>
+        <v>560346</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="7">
+        <v>803</v>
+      </c>
+      <c r="I16" s="7">
+        <v>824009</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>217</v>
-      </c>
-      <c r="I16" s="7">
-        <v>227442</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>1352</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1384355</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="M16" s="7">
-        <v>364</v>
-      </c>
-      <c r="N16" s="7">
-        <v>364734</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2502,49 +2295,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>846</v>
+        <v>2664</v>
       </c>
       <c r="D17" s="7">
-        <v>804045</v>
+        <v>2715313</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>2493</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2554248</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="H17" s="7">
-        <v>780</v>
-      </c>
-      <c r="I17" s="7">
-        <v>811170</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>5157</v>
+      </c>
+      <c r="N17" s="7">
+        <v>5269560</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1626</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1615215</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2553,10 +2346,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>993</v>
+        <v>3213</v>
       </c>
       <c r="D18" s="7">
-        <v>941337</v>
+        <v>3275659</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2568,10 +2361,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3296</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3378257</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2583,10 +2376,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1990</v>
+        <v>6509</v>
       </c>
       <c r="N18" s="7">
-        <v>1979949</v>
+        <v>6653915</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2599,171 +2392,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>549</v>
-      </c>
-      <c r="D19" s="7">
-        <v>560346</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H19" s="7">
-        <v>803</v>
-      </c>
-      <c r="I19" s="7">
-        <v>824009</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1352</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1384355</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2664</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2715312</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2493</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2554248</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5157</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5269561</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3213</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3275658</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3296</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3378257</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6509</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6653916</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2776,8 +2413,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73DE77EC-DF69-4955-B552-6E01039D854A}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1644C115-F73E-4EC3-ADF2-932FC6DABA1F}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2793,7 +2430,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2894,49 +2531,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="D4" s="7">
-        <v>28185</v>
+        <v>141424</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="H4" s="7">
-        <v>26</v>
+        <v>181</v>
       </c>
       <c r="I4" s="7">
-        <v>28530</v>
+        <v>193387</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="M4" s="7">
-        <v>55</v>
+        <v>316</v>
       </c>
       <c r="N4" s="7">
-        <v>56715</v>
+        <v>334810</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2945,49 +2582,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>92</v>
+        <v>538</v>
       </c>
       <c r="D5" s="7">
-        <v>86853</v>
+        <v>561318</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="H5" s="7">
-        <v>73</v>
+        <v>469</v>
       </c>
       <c r="I5" s="7">
-        <v>83375</v>
+        <v>503663</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="M5" s="7">
-        <v>165</v>
+        <v>1007</v>
       </c>
       <c r="N5" s="7">
-        <v>170228</v>
+        <v>1064982</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2996,10 +2633,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>121</v>
+        <v>673</v>
       </c>
       <c r="D6" s="7">
-        <v>115038</v>
+        <v>702742</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3011,10 +2648,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3026,10 +2663,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>220</v>
+        <v>1323</v>
       </c>
       <c r="N6" s="7">
-        <v>226943</v>
+        <v>1399792</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3049,49 +2686,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>106</v>
+        <v>211</v>
       </c>
       <c r="D7" s="7">
-        <v>113239</v>
+        <v>228909</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>137</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="H7" s="7">
-        <v>155</v>
+        <v>270</v>
       </c>
       <c r="I7" s="7">
-        <v>164857</v>
+        <v>300481</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="M7" s="7">
-        <v>261</v>
+        <v>481</v>
       </c>
       <c r="N7" s="7">
-        <v>278096</v>
+        <v>529390</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>143</v>
+        <v>54</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3100,49 +2737,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>446</v>
+        <v>725</v>
       </c>
       <c r="D8" s="7">
-        <v>474465</v>
+        <v>789038</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="H8" s="7">
-        <v>396</v>
+        <v>670</v>
       </c>
       <c r="I8" s="7">
-        <v>420288</v>
+        <v>731703</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="M8" s="7">
-        <v>842</v>
+        <v>1395</v>
       </c>
       <c r="N8" s="7">
-        <v>894753</v>
+        <v>1520741</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>152</v>
+        <v>63</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3151,10 +2788,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3166,10 +2803,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>940</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1032184</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3181,10 +2818,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1103</v>
+        <v>1876</v>
       </c>
       <c r="N9" s="7">
-        <v>1172849</v>
+        <v>2050131</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3204,49 +2841,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>211</v>
+        <v>169</v>
       </c>
       <c r="D10" s="7">
-        <v>228909</v>
+        <v>183822</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>58</v>
+        <v>136</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="H10" s="7">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="I10" s="7">
-        <v>300481</v>
+        <v>258015</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="M10" s="7">
-        <v>481</v>
+        <v>408</v>
       </c>
       <c r="N10" s="7">
-        <v>529390</v>
+        <v>441837</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3255,49 +2892,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>725</v>
+        <v>520</v>
       </c>
       <c r="D11" s="7">
-        <v>789038</v>
+        <v>573801</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>68</v>
+        <v>145</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="H11" s="7">
-        <v>670</v>
+        <v>465</v>
       </c>
       <c r="I11" s="7">
-        <v>731703</v>
+        <v>518200</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="M11" s="7">
-        <v>1395</v>
+        <v>985</v>
       </c>
       <c r="N11" s="7">
-        <v>1520741</v>
+        <v>1092001</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3306,10 +2943,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3321,10 +2958,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>940</v>
+        <v>704</v>
       </c>
       <c r="I12" s="7">
-        <v>1032184</v>
+        <v>776215</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3336,10 +2973,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1876</v>
+        <v>1393</v>
       </c>
       <c r="N12" s="7">
-        <v>2050131</v>
+        <v>1533838</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3359,49 +2996,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="D13" s="7">
-        <v>183822</v>
+        <v>152403</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="H13" s="7">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="I13" s="7">
-        <v>258015</v>
+        <v>227589</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>174</v>
+        <v>108</v>
       </c>
       <c r="M13" s="7">
-        <v>408</v>
+        <v>366</v>
       </c>
       <c r="N13" s="7">
-        <v>441837</v>
+        <v>379993</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>175</v>
+        <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3410,49 +3047,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>520</v>
+        <v>760</v>
       </c>
       <c r="D14" s="7">
-        <v>573801</v>
+        <v>793382</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="H14" s="7">
-        <v>465</v>
+        <v>783</v>
       </c>
       <c r="I14" s="7">
-        <v>518200</v>
+        <v>822165</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="M14" s="7">
-        <v>985</v>
+        <v>1543</v>
       </c>
       <c r="N14" s="7">
-        <v>1092001</v>
+        <v>1615547</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>184</v>
+        <v>22</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3461,10 +3098,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>689</v>
+        <v>908</v>
       </c>
       <c r="D15" s="7">
-        <v>757623</v>
+        <v>945785</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3476,10 +3113,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>704</v>
+        <v>1001</v>
       </c>
       <c r="I15" s="7">
-        <v>776215</v>
+        <v>1049754</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3491,10 +3128,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1393</v>
+        <v>1909</v>
       </c>
       <c r="N15" s="7">
-        <v>1533838</v>
+        <v>1995540</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3508,55 +3145,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>148</v>
+        <v>663</v>
       </c>
       <c r="D16" s="7">
-        <v>152403</v>
+        <v>706558</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="H16" s="7">
-        <v>218</v>
+        <v>908</v>
       </c>
       <c r="I16" s="7">
-        <v>227589</v>
+        <v>979472</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="M16" s="7">
-        <v>366</v>
+        <v>1571</v>
       </c>
       <c r="N16" s="7">
-        <v>379993</v>
+        <v>1686030</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3565,49 +3202,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>760</v>
+        <v>2543</v>
       </c>
       <c r="D17" s="7">
-        <v>793382</v>
+        <v>2717540</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="H17" s="7">
-        <v>783</v>
+        <v>2387</v>
       </c>
       <c r="I17" s="7">
-        <v>822165</v>
+        <v>2575731</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="M17" s="7">
-        <v>1543</v>
+        <v>4930</v>
       </c>
       <c r="N17" s="7">
-        <v>1615547</v>
+        <v>5293271</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3616,10 +3253,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>908</v>
+        <v>3206</v>
       </c>
       <c r="D18" s="7">
-        <v>945785</v>
+        <v>3424098</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3631,10 +3268,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1001</v>
+        <v>3295</v>
       </c>
       <c r="I18" s="7">
-        <v>1049754</v>
+        <v>3555203</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3646,10 +3283,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1909</v>
+        <v>6501</v>
       </c>
       <c r="N18" s="7">
-        <v>1995540</v>
+        <v>6979301</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3662,171 +3299,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>663</v>
-      </c>
-      <c r="D19" s="7">
-        <v>706558</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="H19" s="7">
-        <v>908</v>
-      </c>
-      <c r="I19" s="7">
-        <v>979473</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1571</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1686030</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2543</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2717540</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2387</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2575731</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="M20" s="7">
-        <v>4930</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5293272</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3206</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3424098</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3295</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3555204</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6501</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6979302</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3839,8 +3320,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4787AEEF-A08F-4834-8CC7-908E3D3AF671}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F95F697B-A08C-42C9-85E2-6CCDC0476D2C}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3856,7 +3337,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>186</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3957,49 +3438,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="D4" s="7">
-        <v>24613</v>
+        <v>105882</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>224</v>
+        <v>187</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="H4" s="7">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="I4" s="7">
-        <v>23190</v>
+        <v>141271</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>40</v>
+        <v>190</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="M4" s="7">
-        <v>45</v>
+        <v>242</v>
       </c>
       <c r="N4" s="7">
-        <v>47802</v>
+        <v>247152</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>230</v>
+        <v>194</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>231</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4008,49 +3489,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>89</v>
+        <v>547</v>
       </c>
       <c r="D5" s="7">
-        <v>90943</v>
+        <v>566973</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="H5" s="7">
-        <v>93</v>
+        <v>527</v>
       </c>
       <c r="I5" s="7">
-        <v>90170</v>
+        <v>531568</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>48</v>
+        <v>199</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="M5" s="7">
-        <v>182</v>
+        <v>1074</v>
       </c>
       <c r="N5" s="7">
-        <v>181114</v>
+        <v>1098542</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4059,10 +3540,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>112</v>
+        <v>650</v>
       </c>
       <c r="D6" s="7">
-        <v>115556</v>
+        <v>672855</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4074,10 +3555,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4089,10 +3570,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>227</v>
+        <v>1316</v>
       </c>
       <c r="N6" s="7">
-        <v>228916</v>
+        <v>1345694</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4112,49 +3593,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="D7" s="7">
-        <v>81269</v>
+        <v>174586</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>89</v>
+        <v>205</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="H7" s="7">
-        <v>117</v>
+        <v>200</v>
       </c>
       <c r="I7" s="7">
-        <v>118081</v>
+        <v>217248</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>243</v>
+        <v>75</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c r="M7" s="7">
-        <v>197</v>
+        <v>358</v>
       </c>
       <c r="N7" s="7">
-        <v>199350</v>
+        <v>391834</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4163,49 +3644,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>458</v>
+        <v>788</v>
       </c>
       <c r="D8" s="7">
-        <v>476030</v>
+        <v>842018</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="H8" s="7">
-        <v>434</v>
+        <v>774</v>
       </c>
       <c r="I8" s="7">
-        <v>441398</v>
+        <v>822296</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>252</v>
+        <v>83</v>
       </c>
       <c r="M8" s="7">
-        <v>892</v>
+        <v>1562</v>
       </c>
       <c r="N8" s="7">
-        <v>917428</v>
+        <v>1664314</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4214,10 +3695,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>538</v>
+        <v>946</v>
       </c>
       <c r="D9" s="7">
-        <v>557299</v>
+        <v>1016604</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4229,10 +3710,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>974</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1039544</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4244,10 +3725,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1089</v>
+        <v>1920</v>
       </c>
       <c r="N9" s="7">
-        <v>1116778</v>
+        <v>2056148</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4267,49 +3748,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="D10" s="7">
-        <v>174586</v>
+        <v>128310</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="H10" s="7">
-        <v>200</v>
+        <v>144</v>
       </c>
       <c r="I10" s="7">
-        <v>217248</v>
+        <v>154983</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>94</v>
+        <v>223</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
       <c r="M10" s="7">
-        <v>358</v>
+        <v>261</v>
       </c>
       <c r="N10" s="7">
-        <v>391834</v>
+        <v>283293</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>261</v>
+        <v>193</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>262</v>
+        <v>194</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>259</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4318,49 +3799,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>788</v>
+        <v>578</v>
       </c>
       <c r="D11" s="7">
-        <v>842018</v>
+        <v>630276</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>264</v>
+        <v>227</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c r="H11" s="7">
-        <v>774</v>
+        <v>591</v>
       </c>
       <c r="I11" s="7">
-        <v>822296</v>
+        <v>628757</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>267</v>
+        <v>230</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>101</v>
+        <v>231</v>
       </c>
       <c r="M11" s="7">
-        <v>1562</v>
+        <v>1169</v>
       </c>
       <c r="N11" s="7">
-        <v>1664314</v>
+        <v>1259033</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>268</v>
+        <v>202</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>269</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4369,10 +3850,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>946</v>
+        <v>695</v>
       </c>
       <c r="D12" s="7">
-        <v>1016604</v>
+        <v>758586</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4384,10 +3865,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>974</v>
+        <v>735</v>
       </c>
       <c r="I12" s="7">
-        <v>1039544</v>
+        <v>783740</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4399,10 +3880,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1920</v>
+        <v>1430</v>
       </c>
       <c r="N12" s="7">
-        <v>2056148</v>
+        <v>1542326</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4422,49 +3903,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="D13" s="7">
-        <v>128310</v>
+        <v>155812</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>270</v>
+        <v>233</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="H13" s="7">
-        <v>144</v>
+        <v>225</v>
       </c>
       <c r="I13" s="7">
-        <v>154983</v>
+        <v>247978</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>274</v>
+        <v>237</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>275</v>
+        <v>238</v>
       </c>
       <c r="M13" s="7">
-        <v>261</v>
+        <v>377</v>
       </c>
       <c r="N13" s="7">
-        <v>283293</v>
+        <v>403790</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>276</v>
+        <v>239</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>277</v>
+        <v>240</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>278</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4473,49 +3954,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>578</v>
+        <v>778</v>
       </c>
       <c r="D14" s="7">
-        <v>630276</v>
+        <v>779828</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>279</v>
+        <v>242</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>280</v>
+        <v>243</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>281</v>
+        <v>244</v>
       </c>
       <c r="H14" s="7">
-        <v>591</v>
+        <v>733</v>
       </c>
       <c r="I14" s="7">
-        <v>628757</v>
+        <v>793982</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>282</v>
+        <v>245</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>283</v>
+        <v>246</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>284</v>
+        <v>247</v>
       </c>
       <c r="M14" s="7">
-        <v>1169</v>
+        <v>1511</v>
       </c>
       <c r="N14" s="7">
-        <v>1259033</v>
+        <v>1573810</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>285</v>
+        <v>248</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>287</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4524,10 +4005,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>695</v>
+        <v>930</v>
       </c>
       <c r="D15" s="7">
-        <v>758586</v>
+        <v>935640</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4539,10 +4020,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>735</v>
+        <v>958</v>
       </c>
       <c r="I15" s="7">
-        <v>783740</v>
+        <v>1041960</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4554,10 +4035,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1430</v>
+        <v>1888</v>
       </c>
       <c r="N15" s="7">
-        <v>1542326</v>
+        <v>1977600</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4571,55 +4052,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>152</v>
+        <v>530</v>
       </c>
       <c r="D16" s="7">
-        <v>155812</v>
+        <v>564590</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
       <c r="H16" s="7">
-        <v>225</v>
+        <v>708</v>
       </c>
       <c r="I16" s="7">
-        <v>247978</v>
+        <v>761480</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>291</v>
+        <v>254</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>292</v>
+        <v>16</v>
       </c>
       <c r="M16" s="7">
-        <v>377</v>
+        <v>1238</v>
       </c>
       <c r="N16" s="7">
-        <v>403790</v>
+        <v>1326069</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>293</v>
+        <v>256</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>294</v>
+        <v>257</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>295</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4628,49 +4109,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>778</v>
+        <v>2691</v>
       </c>
       <c r="D17" s="7">
-        <v>779828</v>
+        <v>2819094</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>297</v>
+        <v>260</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>298</v>
+        <v>261</v>
       </c>
       <c r="H17" s="7">
-        <v>733</v>
+        <v>2625</v>
       </c>
       <c r="I17" s="7">
-        <v>793982</v>
+        <v>2776603</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>299</v>
+        <v>262</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="M17" s="7">
-        <v>1511</v>
+        <v>5316</v>
       </c>
       <c r="N17" s="7">
-        <v>1573810</v>
+        <v>5595698</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>301</v>
+        <v>264</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>302</v>
+        <v>265</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>303</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4679,10 +4160,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>930</v>
+        <v>3221</v>
       </c>
       <c r="D18" s="7">
-        <v>935640</v>
+        <v>3383684</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4694,10 +4175,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>958</v>
+        <v>3333</v>
       </c>
       <c r="I18" s="7">
-        <v>1041960</v>
+        <v>3538083</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4709,10 +4190,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1888</v>
+        <v>6554</v>
       </c>
       <c r="N18" s="7">
-        <v>1977600</v>
+        <v>6921767</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4725,171 +4206,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>530</v>
-      </c>
-      <c r="D19" s="7">
-        <v>564590</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="H19" s="7">
-        <v>708</v>
-      </c>
-      <c r="I19" s="7">
-        <v>761480</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1238</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1326069</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2691</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2819094</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2625</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2776603</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5316</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5595699</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3221</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3383684</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3333</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3538083</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6554</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6921768</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4902,8 +4227,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31053062-55B7-457A-9E37-A30A47535080}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{827ACAE7-15A0-496F-903F-4B2555D1745E}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4919,7 +4244,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>320</v>
+        <v>267</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5020,49 +4345,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>24</v>
+        <v>147</v>
       </c>
       <c r="D4" s="7">
-        <v>19909</v>
+        <v>128631</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>321</v>
+        <v>268</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>322</v>
+        <v>269</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>323</v>
+        <v>270</v>
       </c>
       <c r="H4" s="7">
-        <v>42</v>
+        <v>252</v>
       </c>
       <c r="I4" s="7">
-        <v>20917</v>
+        <v>143094</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>324</v>
+        <v>271</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>325</v>
+        <v>272</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>326</v>
+        <v>273</v>
       </c>
       <c r="M4" s="7">
-        <v>66</v>
+        <v>399</v>
       </c>
       <c r="N4" s="7">
-        <v>40826</v>
+        <v>271725</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>327</v>
+        <v>274</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>328</v>
+        <v>275</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>329</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5071,49 +4396,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>94</v>
+        <v>582</v>
       </c>
       <c r="D5" s="7">
-        <v>82073</v>
+        <v>505057</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>330</v>
+        <v>277</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>331</v>
+        <v>278</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>332</v>
+        <v>279</v>
       </c>
       <c r="H5" s="7">
-        <v>201</v>
+        <v>987</v>
       </c>
       <c r="I5" s="7">
-        <v>109816</v>
+        <v>532658</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>333</v>
+        <v>280</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>334</v>
+        <v>281</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>335</v>
+        <v>282</v>
       </c>
       <c r="M5" s="7">
-        <v>295</v>
+        <v>1569</v>
       </c>
       <c r="N5" s="7">
-        <v>191889</v>
+        <v>1037716</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>336</v>
+        <v>283</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>337</v>
+        <v>284</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>338</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5122,10 +4447,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>729</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>633688</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5137,10 +4462,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1239</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>675752</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5152,10 +4477,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>361</v>
+        <v>1968</v>
       </c>
       <c r="N6" s="7">
-        <v>232715</v>
+        <v>1309441</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5175,49 +4500,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>123</v>
+        <v>207</v>
       </c>
       <c r="D7" s="7">
-        <v>109663</v>
+        <v>213681</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>339</v>
+        <v>286</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>340</v>
+        <v>287</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>341</v>
+        <v>288</v>
       </c>
       <c r="H7" s="7">
-        <v>210</v>
+        <v>367</v>
       </c>
       <c r="I7" s="7">
-        <v>129213</v>
+        <v>236136</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>342</v>
+        <v>289</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>343</v>
+        <v>290</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>344</v>
+        <v>291</v>
       </c>
       <c r="M7" s="7">
-        <v>333</v>
+        <v>574</v>
       </c>
       <c r="N7" s="7">
-        <v>238875</v>
+        <v>449817</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>345</v>
+        <v>292</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>346</v>
+        <v>293</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>347</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5226,49 +4551,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>488</v>
+        <v>757</v>
       </c>
       <c r="D8" s="7">
-        <v>438221</v>
+        <v>979183</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>348</v>
+        <v>295</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>349</v>
+        <v>296</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>350</v>
+        <v>297</v>
       </c>
       <c r="H8" s="7">
-        <v>786</v>
+        <v>1146</v>
       </c>
       <c r="I8" s="7">
-        <v>463749</v>
+        <v>720195</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>351</v>
+        <v>298</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>352</v>
+        <v>299</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>353</v>
+        <v>300</v>
       </c>
       <c r="M8" s="7">
-        <v>1274</v>
+        <v>1903</v>
       </c>
       <c r="N8" s="7">
-        <v>901971</v>
+        <v>1699378</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>354</v>
+        <v>301</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>355</v>
+        <v>302</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>356</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5277,10 +4602,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>611</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>547884</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5292,10 +4617,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>996</v>
+        <v>1513</v>
       </c>
       <c r="I9" s="7">
-        <v>592962</v>
+        <v>956331</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5307,10 +4632,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1607</v>
+        <v>2477</v>
       </c>
       <c r="N9" s="7">
-        <v>1140846</v>
+        <v>2149195</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5330,49 +4655,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>207</v>
+        <v>133</v>
       </c>
       <c r="D10" s="7">
-        <v>215999</v>
+        <v>139569</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>357</v>
+        <v>304</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>358</v>
+        <v>305</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>359</v>
+        <v>306</v>
       </c>
       <c r="H10" s="7">
-        <v>367</v>
+        <v>279</v>
       </c>
       <c r="I10" s="7">
-        <v>257298</v>
+        <v>389764</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>360</v>
+        <v>307</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>361</v>
+        <v>308</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>362</v>
+        <v>309</v>
       </c>
       <c r="M10" s="7">
-        <v>574</v>
+        <v>412</v>
       </c>
       <c r="N10" s="7">
-        <v>473297</v>
+        <v>529333</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>363</v>
+        <v>310</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>364</v>
+        <v>170</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>365</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5381,49 +4706,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>757</v>
+        <v>543</v>
       </c>
       <c r="D11" s="7">
-        <v>823249</v>
+        <v>565111</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>366</v>
+        <v>312</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>367</v>
+        <v>313</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>368</v>
+        <v>314</v>
       </c>
       <c r="H11" s="7">
-        <v>1146</v>
+        <v>765</v>
       </c>
       <c r="I11" s="7">
-        <v>800256</v>
+        <v>539782</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>369</v>
+        <v>315</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>370</v>
+        <v>316</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>371</v>
+        <v>317</v>
       </c>
       <c r="M11" s="7">
-        <v>1903</v>
+        <v>1308</v>
       </c>
       <c r="N11" s="7">
-        <v>1623505</v>
+        <v>1104893</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>372</v>
+        <v>318</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>373</v>
+        <v>319</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>374</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5432,10 +4757,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>676</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>704680</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5447,10 +4772,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1513</v>
+        <v>1044</v>
       </c>
       <c r="I12" s="7">
-        <v>1057554</v>
+        <v>929546</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5462,10 +4787,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2477</v>
+        <v>1720</v>
       </c>
       <c r="N12" s="7">
-        <v>2096802</v>
+        <v>1634226</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5485,49 +4810,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>133</v>
+        <v>208</v>
       </c>
       <c r="D13" s="7">
-        <v>141153</v>
+        <v>195043</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>375</v>
+        <v>320</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>376</v>
+        <v>321</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>377</v>
+        <v>322</v>
       </c>
       <c r="H13" s="7">
-        <v>279</v>
+        <v>415</v>
       </c>
       <c r="I13" s="7">
-        <v>311422</v>
+        <v>277492</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>378</v>
+        <v>323</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>379</v>
+        <v>225</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>380</v>
+        <v>324</v>
       </c>
       <c r="M13" s="7">
-        <v>412</v>
+        <v>623</v>
       </c>
       <c r="N13" s="7">
-        <v>452575</v>
+        <v>472536</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>381</v>
+        <v>325</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>53</v>
+        <v>326</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>382</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5536,49 +4861,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>543</v>
+        <v>798</v>
       </c>
       <c r="D14" s="7">
-        <v>587619</v>
+        <v>731788</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>383</v>
+        <v>328</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>384</v>
+        <v>329</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>385</v>
+        <v>330</v>
       </c>
       <c r="H14" s="7">
-        <v>765</v>
+        <v>1145</v>
       </c>
       <c r="I14" s="7">
-        <v>558519</v>
+        <v>814570</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>386</v>
+        <v>331</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>387</v>
+        <v>332</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>388</v>
+        <v>232</v>
       </c>
       <c r="M14" s="7">
-        <v>1308</v>
+        <v>1943</v>
       </c>
       <c r="N14" s="7">
-        <v>1146137</v>
+        <v>1546357</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>389</v>
+        <v>333</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>390</v>
+        <v>334</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>61</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5587,10 +4912,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>676</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="7">
-        <v>728772</v>
+        <v>926831</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5602,10 +4927,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1044</v>
+        <v>1560</v>
       </c>
       <c r="I15" s="7">
-        <v>869941</v>
+        <v>1092062</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5617,10 +4942,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1720</v>
+        <v>2566</v>
       </c>
       <c r="N15" s="7">
-        <v>1598712</v>
+        <v>2018893</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5634,55 +4959,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>208</v>
+        <v>695</v>
       </c>
       <c r="D16" s="7">
-        <v>199343</v>
+        <v>676924</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>391</v>
+        <v>336</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>392</v>
+        <v>337</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1313</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1046486</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="H16" s="7">
-        <v>415</v>
-      </c>
-      <c r="I16" s="7">
-        <v>302915</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>395</v>
-      </c>
       <c r="M16" s="7">
-        <v>623</v>
+        <v>2008</v>
       </c>
       <c r="N16" s="7">
-        <v>502259</v>
+        <v>1723411</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>396</v>
+        <v>108</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>397</v>
+        <v>342</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>398</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5691,49 +5016,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>798</v>
+        <v>2680</v>
       </c>
       <c r="D17" s="7">
-        <v>766060</v>
+        <v>2781140</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>399</v>
+        <v>344</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="H17" s="7">
+        <v>4043</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2607205</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1145</v>
-      </c>
-      <c r="I17" s="7">
-        <v>844121</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>403</v>
-      </c>
       <c r="M17" s="7">
-        <v>1943</v>
+        <v>6723</v>
       </c>
       <c r="N17" s="7">
-        <v>1610180</v>
+        <v>5388344</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>404</v>
+        <v>118</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>405</v>
+        <v>350</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>406</v>
+        <v>351</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5742,10 +5067,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1006</v>
+        <v>3375</v>
       </c>
       <c r="D18" s="7">
-        <v>965403</v>
+        <v>3458064</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5757,10 +5082,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1560</v>
+        <v>5356</v>
       </c>
       <c r="I18" s="7">
-        <v>1147036</v>
+        <v>3653691</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5772,10 +5097,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2566</v>
+        <v>8731</v>
       </c>
       <c r="N18" s="7">
-        <v>2112439</v>
+        <v>7111755</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5788,171 +5113,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>695</v>
-      </c>
-      <c r="D19" s="7">
-        <v>686068</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1313</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1021764</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2008</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1707832</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2680</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2697221</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4043</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2776461</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6723</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5473682</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3375</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3383289</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5356</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3798225</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8731</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7181514</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
